--- a/data/trans_camb/P37_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>8,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>-1,69</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,57</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-4,12</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 10,57</t>
+          <t>-17,83; 7,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 14,58</t>
+          <t>-13,16; 14,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 20,9</t>
+          <t>-12,2; 13,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 15,55</t>
+          <t>-9,05; 18,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 19,35</t>
+          <t>-13,8; 14,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 20,04</t>
+          <t>-4,11; 17,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 9,1</t>
+          <t>-2,49; 19,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 13,8</t>
+          <t>-12,56; 11,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 17,88</t>
+          <t>-13,27; 9,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-18,92; 5,27</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 9,24</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,13; 12,63</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; 7,4</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; 11,97</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-12,69; 6,04</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>-2,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>-5,56%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-20,9%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,59%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-2,17%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-10,91%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 41,06</t>
+          <t>-42,51; 25,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 56,52</t>
+          <t>-32,48; 51,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 79,45</t>
+          <t>-30,59; 48,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 73,64</t>
+          <t>-21,84; 64,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 94,15</t>
+          <t>-30,07; 45,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 95,16</t>
+          <t>-11,43; 68,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 35,44</t>
+          <t>-8,06; 77,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 56,31</t>
+          <t>-33,73; 45,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 71,27</t>
+          <t>-36,41; 38,95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-45,45; 19,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,36; 32,19</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-13,63; 43,51</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-26,23; 26,86</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-20,8; 43,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-30,32; 18,29</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>-10,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,13</t>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,46</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,37</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-4,74</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 14,85</t>
+          <t>-10,73; 16,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 16,21</t>
+          <t>-11,27; 17,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 23,95</t>
+          <t>-0,06; 34,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 15,76</t>
+          <t>-27,79; 4,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 15,58</t>
+          <t>-18,23; 9,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 23,03</t>
+          <t>-2,97; 14,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 12,76</t>
+          <t>-2,55; 15,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 12,58</t>
+          <t>-1,35; 19,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 20,86</t>
+          <t>-9,49; 12,45</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; 8,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 12,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 12,83</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 24,06</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-15,31; 5,43</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 5,64</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>-22,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>-9,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-5,65%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>41,02%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-11,14%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-7,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 63,58</t>
+          <t>-27,46; 69,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 62,96</t>
+          <t>-29,69; 69,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 96,57</t>
+          <t>-4,29; 140,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 68,12</t>
+          <t>-50,87; 10,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 67,89</t>
+          <t>-39,55; 29,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 99,94</t>
+          <t>-8,59; 68,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 51,04</t>
+          <t>-8,05; 63,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 49,8</t>
+          <t>-5,74; 82,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 82,9</t>
+          <t>-21,5; 40,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-27,33; 25,09</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-13,63; 49,07</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-12,62; 50,15</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 94,67</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-30,88; 14,44</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-26,7; 15,5</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>5,41</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,53</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 8,33</t>
+          <t>-14,16; 5,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 4,55</t>
+          <t>-17,29; 1,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 15,43</t>
+          <t>-11,12; 10,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 5,03</t>
+          <t>-4,87; 16,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 7,79</t>
+          <t>-6,99; 13,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 11,83</t>
+          <t>-9,4; 5,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 4,12</t>
+          <t>-6,72; 8,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 3,62</t>
+          <t>-4,5; 12,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 10,71</t>
+          <t>-3,64; 14,28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 13,05</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,72; 3,11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; 3,47</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 7,87</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 12,2</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 10,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>-4,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,79%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-7,18%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-8,03%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 29,45</t>
+          <t>-33,74; 18,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,51; 14,92</t>
+          <t>-41,06; 6,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 55,49</t>
+          <t>-26,07; 33,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 15,82</t>
+          <t>-12,42; 51,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 24,31</t>
+          <t>-15,61; 39,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 37,51</t>
+          <t>-22,72; 18,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 12,73</t>
+          <t>-17,19; 25,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 11,26</t>
+          <t>-11,21; 39,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 33,33</t>
+          <t>-7,98; 41,61</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; 37,4</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-22,54; 8,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-21,64; 10,77</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-12,64; 23,6</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 34,51</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-8,06; 29,37</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>9,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,21</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,98</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 5,93</t>
+          <t>-10,97; 5,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 9,71</t>
+          <t>-7,09; 10,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 11,67</t>
+          <t>-6,67; 12,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 13,07</t>
+          <t>-5,35; 13,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 18,55</t>
+          <t>-4,7; 15,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 17,07</t>
+          <t>-2,08; 12,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 7,97</t>
+          <t>4,28; 19,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 12,07</t>
+          <t>2,15; 17,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 11,51</t>
+          <t>-8,4; 7,85</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 11,17</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 6,57</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 11,5</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 12,04</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 8,6</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 10,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,34%</t>
+          <t>-5,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 17,72</t>
+          <t>-24,98; 16,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 29,12</t>
+          <t>-16,57; 30,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 34,13</t>
+          <t>-15,89; 35,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 40,94</t>
+          <t>-12,12; 36,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,46; 60,02</t>
+          <t>-10,26; 44,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 51,63</t>
+          <t>-4,91; 42,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 23,53</t>
+          <t>9,96; 63,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,83; 36,14</t>
+          <t>5,08; 56,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 33,21</t>
+          <t>-16,9; 18,77</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-15,15; 29,14</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-11,31; 19,2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 33,74</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 34,81</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 21,47</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 25,58</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,5</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,69</t>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-9,05</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5,72</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 4,42</t>
+          <t>-11,85; 6,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 11,01</t>
+          <t>-7,17; 11,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,14; 21,36</t>
+          <t>-7,33; 12,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 12,22</t>
+          <t>2,43; 22,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 11,44</t>
+          <t>-5,23; 15,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,99; 26,03</t>
+          <t>-5,76; 12,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 6,44</t>
+          <t>-5,59; 13,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 9,21</t>
+          <t>-1,56; 18,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,83; 20,3</t>
+          <t>-9,92; 10,01</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-18,59; 1,1</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 7,01</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 9,18</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 12,83</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 13,44</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-8,48; 4,65</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-12,64%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>-1,47%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-16,17%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>15,71%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 15,59</t>
+          <t>-31,51; 23,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 37,24</t>
+          <t>-19,38; 40,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 73,67</t>
+          <t>-18,98; 45,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 36,08</t>
+          <t>5,26; 73,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 33,71</t>
+          <t>-11,08; 39,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>16,03; 75,32</t>
+          <t>-12,82; 36,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 19,93</t>
+          <t>-13,05; 38,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 27,69</t>
+          <t>-3,61; 56,25</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>15,27; 61,41</t>
+          <t>-19,11; 23,99</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-31,28; 2,26</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-15,16; 22,16</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-9,7; 28,62</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 38,85</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 34,74</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-16,5; 10,04</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,05</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-11,29</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-4,66</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-3,75</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4,56</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 12,2</t>
+          <t>-10,68; 11,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 11,91</t>
+          <t>-10,93; 12,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 9,84</t>
+          <t>-13,27; 10,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 3,45</t>
+          <t>-9,26; 13,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-22,47; -1,63</t>
+          <t>-6,82; 16,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 6,22</t>
+          <t>-14,95; 3,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 4,42</t>
+          <t>-18,59; 0,84</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 2,03</t>
+          <t>-15,64; 8,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 4,2</t>
+          <t>-6,63; 17,19</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-8,79; 16,77</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-10,54; 4,13</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-11,29; 2,58</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; 4,69</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 13,18</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 12,5</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-7,67%</t>
+          <t>-5,21%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-13,51%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-21,62%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>-11,98%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-8,2%</t>
+          <t>-17,51%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-12,56%</t>
+          <t>-9,73%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-8,9%</t>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-7,3%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-10,01%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-8,06%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 35,26</t>
+          <t>-22,91; 32,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 35,64</t>
+          <t>-22,71; 36,55</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 28,19</t>
+          <t>-28,58; 30,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 7,54</t>
+          <t>-20,77; 41,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -3,84</t>
+          <t>-15,94; 49,96</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 13,37</t>
+          <t>-27,26; 8,43</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 10,21</t>
+          <t>-34,17; 1,49</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 4,6</t>
+          <t>-28,65; 18,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 9,58</t>
+          <t>-12,63; 42,83</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-15,88; 42,74</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-21,48; 9,47</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-22,99; 5,94</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-24,07; 11,19</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 35,45</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 32,16</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
           <t>1,34</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>6,04</t>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 3,42</t>
+          <t>-5,9; 3,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 4,6</t>
+          <t>-4,51; 4,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,73; 9,79</t>
+          <t>-1,98; 8,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,37</t>
+          <t>-1,96; 8,56</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,07</t>
+          <t>-2,94; 7,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,92; 11,24</t>
+          <t>-2,43; 5,07</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,03</t>
+          <t>-1,0; 6,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,29</t>
+          <t>-0,7; 7,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,84; 9,18</t>
+          <t>-2,2; 6,31</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 3,46</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 2,49</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 4,14</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 6,93</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 6,16</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 3,82</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-0,49%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 10,2</t>
+          <t>-15,3; 9,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 13,74</t>
+          <t>-11,73; 12,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,82; 29,28</t>
+          <t>-5,03; 24,56</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 12,1</t>
+          <t>-4,84; 23,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 17,04</t>
+          <t>-6,69; 18,71</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>7,04; 31,47</t>
+          <t>-5,93; 14,34</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 8,85</t>
+          <t>-2,72; 18,29</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 12,26</t>
+          <t>-1,77; 21,98</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>7,77; 26,32</t>
+          <t>-5,34; 16,05</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 8,37</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-8,03; 7,19</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 11,75</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 19,78</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 16,13</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 9,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
